--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2451.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2451.xlsx
@@ -354,7 +354,7 @@
         <v>2.255807442954483</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.859659411037962</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2451.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2451.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055063632892983</v>
+        <v>1.877531886100769</v>
       </c>
       <c r="B1">
-        <v>2.255807442954483</v>
+        <v>2.073564529418945</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.456933736801147</v>
       </c>
       <c r="D1">
-        <v>2.859659411037962</v>
+        <v>3.785820484161377</v>
       </c>
       <c r="E1">
-        <v>0.9771339030131043</v>
+        <v>1.14708685874939</v>
       </c>
     </row>
   </sheetData>
